--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_T55_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_T55_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02072117565895826</v>
+        <v>0.04612272632165332</v>
       </c>
       <c r="C2">
-        <v>0.5679342762134251</v>
+        <v>0.6122205438342831</v>
       </c>
       <c r="D2">
-        <v>0.6583304034161481</v>
+        <v>0.7643369223465524</v>
       </c>
       <c r="E2">
-        <v>0.8113756241200176</v>
+        <v>0.8742636457880153</v>
       </c>
       <c r="F2">
-        <v>0.8333373229775733</v>
+        <v>0.8983570984052854</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04612272632165332</v>
+        <v>-0.05484937042860891</v>
       </c>
       <c r="C3">
-        <v>0.6122205438342831</v>
+        <v>0.5505006181463401</v>
       </c>
       <c r="D3">
-        <v>0.7643369223465524</v>
+        <v>0.631985967850102</v>
       </c>
       <c r="E3">
-        <v>0.8742636457880153</v>
+        <v>0.7949754510990273</v>
       </c>
       <c r="F3">
-        <v>0.8983570984052854</v>
+        <v>0.8174892103658266</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05484937042860891</v>
+        <v>0.0454318984618024</v>
       </c>
       <c r="C4">
-        <v>0.5505006181463401</v>
+        <v>0.4533283699478702</v>
       </c>
       <c r="D4">
-        <v>0.631985967850102</v>
+        <v>0.4371073281485932</v>
       </c>
       <c r="E4">
-        <v>0.7949754510990273</v>
+        <v>0.6611409291131454</v>
       </c>
       <c r="F4">
-        <v>0.8174892103658266</v>
+        <v>0.6812093330742512</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0454318984618024</v>
+        <v>0.1619522260889591</v>
       </c>
       <c r="C5">
-        <v>0.4533283699478702</v>
+        <v>0.3783700883078635</v>
       </c>
       <c r="D5">
-        <v>0.4371073281485932</v>
+        <v>0.2480121053477303</v>
       </c>
       <c r="E5">
-        <v>0.6611409291131454</v>
+        <v>0.4980081378328373</v>
       </c>
       <c r="F5">
-        <v>0.6812093330742512</v>
+        <v>0.4874682207362279</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1619522260889591</v>
+        <v>0.1471867289230871</v>
       </c>
       <c r="C6">
-        <v>0.3783700883078635</v>
+        <v>0.4060743056329635</v>
       </c>
       <c r="D6">
-        <v>0.2480121053477303</v>
+        <v>0.2139495689888607</v>
       </c>
       <c r="E6">
-        <v>0.4980081378328373</v>
+        <v>0.4625468289685496</v>
       </c>
       <c r="F6">
-        <v>0.4874682207362279</v>
+        <v>0.455056961899273</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1471867289230871</v>
+        <v>0.169821430505846</v>
       </c>
       <c r="C7">
-        <v>0.4060743056329635</v>
+        <v>0.3504591757809973</v>
       </c>
       <c r="D7">
-        <v>0.2139495689888607</v>
+        <v>0.229570748894733</v>
       </c>
       <c r="E7">
-        <v>0.4625468289685496</v>
+        <v>0.4791354181176058</v>
       </c>
       <c r="F7">
-        <v>0.455056961899273</v>
+        <v>0.4663250474243488</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.169821430505846</v>
+        <v>0.1844780524147233</v>
       </c>
       <c r="C8">
-        <v>0.3504591757809973</v>
+        <v>0.3492283006690807</v>
       </c>
       <c r="D8">
-        <v>0.229570748894733</v>
+        <v>0.2072969125451589</v>
       </c>
       <c r="E8">
-        <v>0.4791354181176058</v>
+        <v>0.4552987069443081</v>
       </c>
       <c r="F8">
-        <v>0.4663250474243488</v>
+        <v>0.4347598217479242</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1844780524147233</v>
+        <v>0.2035825112292451</v>
       </c>
       <c r="C9">
-        <v>0.3492283006690807</v>
+        <v>0.3072747587892817</v>
       </c>
       <c r="D9">
-        <v>0.2072969125451589</v>
+        <v>0.2238621271029474</v>
       </c>
       <c r="E9">
-        <v>0.4552987069443081</v>
+        <v>0.4731407053963413</v>
       </c>
       <c r="F9">
-        <v>0.4347598217479242</v>
+        <v>0.4479485651801955</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2035825112292451</v>
+        <v>0.1565263708236955</v>
       </c>
       <c r="C10">
-        <v>0.3072747587892817</v>
+        <v>0.2762321533226782</v>
       </c>
       <c r="D10">
-        <v>0.2238621271029474</v>
+        <v>0.1325312503702182</v>
       </c>
       <c r="E10">
-        <v>0.4731407053963413</v>
+        <v>0.3640484176180666</v>
       </c>
       <c r="F10">
-        <v>0.4479485651801955</v>
+        <v>0.3464594662951709</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1565263708236955</v>
+        <v>0.1105734048294803</v>
       </c>
       <c r="C11">
-        <v>0.2762321533226782</v>
+        <v>0.3275689177650167</v>
       </c>
       <c r="D11">
-        <v>0.1325312503702182</v>
+        <v>0.2709241877029764</v>
       </c>
       <c r="E11">
-        <v>0.3640484176180666</v>
+        <v>0.5205037826019869</v>
       </c>
       <c r="F11">
-        <v>0.3464594662951709</v>
+        <v>0.5394765273654789</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_T55_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_T55_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.04612272632165332</v>
+        <v>0.02072117565895826</v>
       </c>
       <c r="C2">
-        <v>0.6122205438342831</v>
+        <v>0.5679342762134251</v>
       </c>
       <c r="D2">
-        <v>0.7643369223465524</v>
+        <v>0.6583304034161481</v>
       </c>
       <c r="E2">
-        <v>0.8742636457880153</v>
+        <v>0.8113756241200176</v>
       </c>
       <c r="F2">
-        <v>0.8983570984052854</v>
+        <v>0.8333373229775733</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05484937042860891</v>
+        <v>0.04612272632165332</v>
       </c>
       <c r="C3">
-        <v>0.5505006181463401</v>
+        <v>0.6122205438342831</v>
       </c>
       <c r="D3">
-        <v>0.631985967850102</v>
+        <v>0.7643369223465524</v>
       </c>
       <c r="E3">
-        <v>0.7949754510990273</v>
+        <v>0.8742636457880153</v>
       </c>
       <c r="F3">
-        <v>0.8174892103658266</v>
+        <v>0.8983570984052854</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0454318984618024</v>
+        <v>-0.05484937042860891</v>
       </c>
       <c r="C4">
-        <v>0.4533283699478702</v>
+        <v>0.5505006181463401</v>
       </c>
       <c r="D4">
-        <v>0.4371073281485932</v>
+        <v>0.631985967850102</v>
       </c>
       <c r="E4">
-        <v>0.6611409291131454</v>
+        <v>0.7949754510990273</v>
       </c>
       <c r="F4">
-        <v>0.6812093330742512</v>
+        <v>0.8174892103658266</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1619522260889591</v>
+        <v>0.0454318984618024</v>
       </c>
       <c r="C5">
-        <v>0.3783700883078635</v>
+        <v>0.4533283699478702</v>
       </c>
       <c r="D5">
-        <v>0.2480121053477303</v>
+        <v>0.4371073281485932</v>
       </c>
       <c r="E5">
-        <v>0.4980081378328373</v>
+        <v>0.6611409291131454</v>
       </c>
       <c r="F5">
-        <v>0.4874682207362279</v>
+        <v>0.6812093330742512</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1471867289230871</v>
+        <v>0.1619522260889591</v>
       </c>
       <c r="C6">
-        <v>0.4060743056329635</v>
+        <v>0.3783700883078635</v>
       </c>
       <c r="D6">
-        <v>0.2139495689888607</v>
+        <v>0.2480121053477303</v>
       </c>
       <c r="E6">
-        <v>0.4625468289685496</v>
+        <v>0.4980081378328373</v>
       </c>
       <c r="F6">
-        <v>0.455056961899273</v>
+        <v>0.4874682207362279</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.169821430505846</v>
+        <v>0.1471867289230871</v>
       </c>
       <c r="C7">
-        <v>0.3504591757809973</v>
+        <v>0.4060743056329635</v>
       </c>
       <c r="D7">
-        <v>0.229570748894733</v>
+        <v>0.2139495689888607</v>
       </c>
       <c r="E7">
-        <v>0.4791354181176058</v>
+        <v>0.4625468289685496</v>
       </c>
       <c r="F7">
-        <v>0.4663250474243488</v>
+        <v>0.455056961899273</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1844780524147233</v>
+        <v>0.169821430505846</v>
       </c>
       <c r="C8">
-        <v>0.3492283006690807</v>
+        <v>0.3504591757809973</v>
       </c>
       <c r="D8">
-        <v>0.2072969125451589</v>
+        <v>0.229570748894733</v>
       </c>
       <c r="E8">
-        <v>0.4552987069443081</v>
+        <v>0.4791354181176058</v>
       </c>
       <c r="F8">
-        <v>0.4347598217479242</v>
+        <v>0.4663250474243488</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2035825112292451</v>
+        <v>0.1844780524147233</v>
       </c>
       <c r="C9">
-        <v>0.3072747587892817</v>
+        <v>0.3492283006690807</v>
       </c>
       <c r="D9">
-        <v>0.2238621271029474</v>
+        <v>0.2072969125451589</v>
       </c>
       <c r="E9">
-        <v>0.4731407053963413</v>
+        <v>0.4552987069443081</v>
       </c>
       <c r="F9">
-        <v>0.4479485651801955</v>
+        <v>0.4347598217479242</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1565263708236955</v>
+        <v>0.2035825112292451</v>
       </c>
       <c r="C10">
-        <v>0.2762321533226782</v>
+        <v>0.3072747587892817</v>
       </c>
       <c r="D10">
-        <v>0.1325312503702182</v>
+        <v>0.2238621271029474</v>
       </c>
       <c r="E10">
-        <v>0.3640484176180666</v>
+        <v>0.4731407053963413</v>
       </c>
       <c r="F10">
-        <v>0.3464594662951709</v>
+        <v>0.4479485651801955</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1105734048294803</v>
+        <v>0.1565263708236955</v>
       </c>
       <c r="C11">
-        <v>0.3275689177650167</v>
+        <v>0.2762321533226782</v>
       </c>
       <c r="D11">
-        <v>0.2709241877029764</v>
+        <v>0.1325312503702182</v>
       </c>
       <c r="E11">
-        <v>0.5205037826019869</v>
+        <v>0.3640484176180666</v>
       </c>
       <c r="F11">
-        <v>0.5394765273654789</v>
+        <v>0.3464594662951709</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
